--- a/src/main/resources/static/importTemplates/importStudentTemplate.xlsx
+++ b/src/main/resources/static/importTemplates/importStudentTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC5CBFA9-9DBA-4F86-AAF1-102B0784F6D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C7B565-E17E-2A42-8E90-A6BF5439D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,37 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019/1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/1/2</t>
-  </si>
-  <si>
-    <t>2019/1/3</t>
-  </si>
-  <si>
-    <t>2019/1/4</t>
-  </si>
-  <si>
-    <t>2019/1/5</t>
-  </si>
-  <si>
-    <t>2019/1/6</t>
-  </si>
-  <si>
-    <t>2019/1/7</t>
-  </si>
-  <si>
-    <t>2019/1/8</t>
-  </si>
-  <si>
-    <t>2019/1/9</t>
-  </si>
-  <si>
-    <t>2019/1/10</t>
-  </si>
-  <si>
     <t>610404100233032001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,13 +176,45 @@
   <si>
     <t>12332324245</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007/1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007/1/3</t>
+  </si>
+  <si>
+    <t>2007/1/4</t>
+  </si>
+  <si>
+    <t>2007/1/5</t>
+  </si>
+  <si>
+    <t>2007/1/6</t>
+  </si>
+  <si>
+    <t>2007/1/7</t>
+  </si>
+  <si>
+    <t>2007/1/8</t>
+  </si>
+  <si>
+    <t>2007/1/9</t>
+  </si>
+  <si>
+    <t>2007/1/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,20 +536,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -588,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,19 +597,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -616,19 +617,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -636,19 +637,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -656,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -676,19 +677,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -696,19 +697,19 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -716,19 +717,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -736,19 +737,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -756,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
